--- a/SourceDataTables/FigS24a.xlsx
+++ b/SourceDataTables/FigS24a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="44">
   <si>
     <t>Age_in_days</t>
   </si>
@@ -165,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -175,14 +175,34 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -242,136 +262,136 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="11" t="s">
         <v>43</v>
       </c>
     </row>

--- a/SourceDataTables/FigS24a.xlsx
+++ b/SourceDataTables/FigS24a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="44">
   <si>
     <t>Age_in_days</t>
   </si>
@@ -165,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -185,11 +185,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -203,6 +205,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -262,136 +266,136 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AF1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AK1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AL1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AN1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AO1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AP1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AR1" s="13" t="s">
         <v>43</v>
       </c>
     </row>
